--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 11C/PRUEBA_TEMPERATURA_6_11C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 11C/PRUEBA_TEMPERATURA_6_11C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos crudos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,106 +73,112 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-11 05:17:00</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:18:01</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:19:02</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:20:04</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:21:05</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:22:07</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:23:08</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:24:09</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:25:11</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:26:12</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:27:14</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:28:15</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:29:17</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:30:18</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:31:19</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:32:21</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:33:22</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:34:24</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:35:25</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:36:27</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:37:28</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:38:29</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:39:31</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:40:32</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:41:34</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:42:35</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:43:37</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:44:38</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:45:39</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:46:41</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:47:42</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:48:44</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:49:45</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:50:46</t>
+    <t>2023-12-10 07:12:34</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:13:34</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:14:34</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:15:34</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:16:35</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:17:35</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:18:35</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:19:35</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:20:36</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:21:36</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:22:36</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:23:36</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:24:37</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:25:37</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:26:37</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:27:37</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:28:38</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:29:38</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:30:38</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:31:38</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:32:39</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:33:39</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:34:39</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:35:39</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:36:40</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:37:40</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:38:40</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:39:40</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:40:41</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:41:41</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:42:41</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:43:41</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:44:42</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:45:42</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:46:42</t>
+  </si>
+  <si>
+    <t>2023-12-10 07:47:43</t>
   </si>
 </sst>
 </file>
@@ -839,111 +845,117 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$35</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>25.4108391608391</c:v>
+                  <c:v>30.524475524475498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.526223776223699</c:v>
+                  <c:v>26.984265734265701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.428321678321598</c:v>
+                  <c:v>23.7062937062937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.592657342657301</c:v>
+                  <c:v>22.132867132867101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.281468531468501</c:v>
+                  <c:v>20.690559440559401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.9702797202797</c:v>
+                  <c:v>19.641608391608301</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>17.805944055944</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.412587412587399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.494755244755201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.363636363636299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.756993006993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.363636363636299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.0524475524475</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.921328671328601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.6590909090908</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.5279720279719</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.5279720279719</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.921328671328601</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.3968531468531</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.3968531468531</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.265734265734199</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>14.0034965034964</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.872377622377501</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.4790209790209</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.9545454545454</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.8234265734265</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.561188811188799</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.561188811188799</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.4300699300699</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12.692307692307599</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.4300699300699</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.167832167832101</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.167832167832101</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.0367132867132</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.298951048951</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12.167832167832101</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12.167832167832101</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.4300699300699</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12.0367132867132</c:v>
+                  <c:v>14.1346153846153</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.167832167832101</c:v>
+                  <c:v>14.790209790209699</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.4300699300699</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12.692307692307599</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.4300699300699</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.0367132867132</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.0367132867132</c:v>
+                  <c:v>14.1346153846153</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.4300699300699</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.167832167832101</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.298951048951</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.692307692307599</c:v>
+                  <c:v>14.265734265734199</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.0034965034964</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,6 +1043,7 @@
         <c:axId val="465779280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="32"/>
           <c:min val="11"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1200,37 +1213,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>12.0367132867132</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.167832167832101</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.4300699300699</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.692307692307599</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.4300699300699</c:v>
+                  <c:v>14.1346153846153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.0367132867132</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.0367132867132</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.4300699300699</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.167832167832101</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.298951048951</c:v>
+                  <c:v>14.0034965034964</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.692307692307599</c:v>
+                  <c:v>14.265734265734199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1327,10 +1340,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>12.310870947234518</c:v>
+                  <c:v>14.229974570883591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.310870947234518</c:v>
+                  <c:v>14.229974570883591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3052,10 +3065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3101,17 +3114,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.4108391608391</v>
+        <v>30.524475524475498</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>1.0659722225682344E-2</v>
+        <v>1.2546296296932269E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3128,14 +3141,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.526223776223699</v>
+        <v>26.984265734265701</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
         <f>COUNT(E:E)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3152,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.428321678321598</v>
+        <v>23.7062937062937</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3169,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.592657342657301</v>
+        <v>22.132867132867101</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3186,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.281468531468501</v>
+        <v>20.690559440559401</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3203,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.9702797202797</v>
+        <v>19.641608391608301</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3220,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>14.0034965034964</v>
+        <v>17.805944055944</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3237,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.872377622377501</v>
+        <v>17.412587412587399</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3254,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.4790209790209</v>
+        <v>16.494755244755201</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3271,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.9545454545454</v>
+        <v>16.363636363636299</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3288,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.8234265734265</v>
+        <v>16.756993006993</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3305,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.561188811188799</v>
+        <v>16.363636363636299</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3322,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.561188811188799</v>
+        <v>15.0524475524475</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3339,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.4300699300699</v>
+        <v>14.921328671328601</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3356,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.692307692307599</v>
+        <v>14.6590909090908</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3373,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.4300699300699</v>
+        <v>14.5279720279719</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3390,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.167832167832101</v>
+        <v>14.5279720279719</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3407,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.167832167832101</v>
+        <v>14.921328671328601</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3424,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.0367132867132</v>
+        <v>14.3968531468531</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3441,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.298951048951</v>
+        <v>14.3968531468531</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3458,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.167832167832101</v>
+        <v>14.265734265734199</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3475,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.167832167832101</v>
+        <v>14.0034965034964</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3492,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.4300699300699</v>
+        <v>14.265734265734199</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3509,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.0367132867132</v>
+        <v>14.1346153846153</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3526,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>12.167832167832101</v>
+        <v>14.790209790209699</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3543,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>12.4300699300699</v>
+        <v>14.265734265734199</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3560,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>12.692307692307599</v>
+        <v>14.265734265734199</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3577,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>12.4300699300699</v>
+        <v>14.265734265734199</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3594,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>12.0367132867132</v>
+        <v>14.265734265734199</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3611,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>12.0367132867132</v>
+        <v>14.1346153846153</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3628,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>12.4300699300699</v>
+        <v>14.265734265734199</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3645,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>12.167832167832101</v>
+        <v>14.265734265734199</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3662,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>12.298951048951</v>
+        <v>14.265734265734199</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3679,7 +3692,41 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>12.692307692307599</v>
+        <v>14.265734265734199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>14.0034965034964</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>14.265734265734199</v>
       </c>
     </row>
   </sheetData>
@@ -3692,8 +3739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3718,45 +3765,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:40:32</v>
+        <v>2023-12-10 07:37:40</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>12.0367132867132</v>
+        <v>14.265734265734199</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>12.310870947234518</v>
+        <v>14.229974570883591</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:41:34</v>
+        <v>2023-12-10 07:38:40</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>12.167832167832101</v>
+        <v>14.265734265734199</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>12.310870947234518</v>
+        <v>14.229974570883591</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:42:35</v>
+        <v>2023-12-10 07:39:40</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>12.4300699300699</v>
+        <v>14.265734265734199</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3765,35 +3812,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:43:37</v>
+        <v>2023-12-10 07:40:41</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>12.692307692307599</v>
+        <v>14.265734265734199</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.24498218522565796</v>
+        <v>8.4790619407729959E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:44:38</v>
+        <v>2023-12-10 07:41:41</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>12.4300699300699</v>
+        <v>14.1346153846153</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:45:39</v>
+        <v>2023-12-10 07:42:41</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>12.0367132867132</v>
+        <v>14.265734265734199</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3802,36 +3849,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:46:41</v>
+        <v>2023-12-10 07:43:41</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>12.0367132867132</v>
+        <v>14.265734265734199</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>12.692307692307599</v>
+        <v>14.265734265734199</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:47:42</v>
+        <v>2023-12-10 07:44:42</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>12.4300699300699</v>
+        <v>14.265734265734199</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:48:44</v>
+        <v>2023-12-10 07:45:42</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>12.167832167832101</v>
+        <v>14.265734265734199</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3840,25 +3887,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:49:45</v>
+        <v>2023-12-10 07:46:42</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>12.298951048951</v>
+        <v>14.0034965034964</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>12.0367132867132</v>
+        <v>14.0034965034964</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:50:46</v>
+        <v>2023-12-10 07:47:43</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>12.692307692307599</v>
+        <v>14.265734265734199</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
